--- a/stock_historical_data/1wk/LUPIN.NS.xlsx
+++ b/stock_historical_data/1wk/LUPIN.NS.xlsx
@@ -63431,7 +63431,9 @@
       <c r="P1188" t="n">
         <v>0</v>
       </c>
-      <c r="Q1188" t="inlineStr"/>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/LUPIN.NS.xlsx
+++ b/stock_historical_data/1wk/LUPIN.NS.xlsx
@@ -67053,7 +67053,9 @@
       <c r="Q1189" t="n">
         <v>0</v>
       </c>
-      <c r="R1189" t="inlineStr"/>
+      <c r="R1189" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/LUPIN.NS.xlsx
+++ b/stock_historical_data/1wk/LUPIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1189"/>
+  <dimension ref="A1:R1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66877,7 +66877,7 @@
         <v>21</v>
       </c>
       <c r="O1186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1186" t="n">
         <v>0</v>
@@ -67056,6 +67056,114 @@
       <c r="R1189" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>1604.099975585938</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>1613.849975585938</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>1543</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>1561</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>1561</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>4346271</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>1565.949951171875</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>1635</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>1545</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>1621.349975585938</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>1621.349975585938</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>9222981</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/LUPIN.NS.xlsx
+++ b/stock_historical_data/1wk/LUPIN.NS.xlsx
@@ -67109,7 +67109,9 @@
       <c r="Q1190" t="n">
         <v>0</v>
       </c>
-      <c r="R1190" t="inlineStr"/>
+      <c r="R1190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1191">
       <c r="A1191" s="2" t="n">
@@ -67163,7 +67165,9 @@
       <c r="Q1191" t="n">
         <v>0</v>
       </c>
-      <c r="R1191" t="inlineStr"/>
+      <c r="R1191" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/LUPIN.NS.xlsx
+++ b/stock_historical_data/1wk/LUPIN.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1191"/>
+  <dimension ref="A1:R1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -66989,7 +66989,7 @@
         <v>23</v>
       </c>
       <c r="O1188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1188" t="n">
         <v>0</v>
@@ -67168,6 +67168,2294 @@
       <c r="R1191" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>1608.000349960136</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>1777.208469026398</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>1591.273633401368</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>1762.473022460938</v>
+      </c>
+      <c r="F1192" t="inlineStr"/>
+      <c r="G1192" t="n">
+        <v>11746403</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1192" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>1762.47303900104</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>1826.492418501643</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>1752.566519306359</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>1789.90283203125</v>
+      </c>
+      <c r="F1193" t="inlineStr"/>
+      <c r="G1193" t="n">
+        <v>5502125</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1193" t="inlineStr"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>1812.005766988436</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>1839.933375771382</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>1768.845016490903</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>1778.851196289062</v>
+      </c>
+      <c r="F1194" t="inlineStr"/>
+      <c r="G1194" t="n">
+        <v>3240712</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1194" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1194" t="inlineStr"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>1785.5</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>1849.900024414062</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>1766.050048828125</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>1840.699951171875</v>
+      </c>
+      <c r="F1195" t="inlineStr"/>
+      <c r="G1195" t="n">
+        <v>5700134</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1195" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1195" t="inlineStr"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>1852.199951171875</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>1984</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>1841</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>1961.5</v>
+      </c>
+      <c r="F1196" t="inlineStr"/>
+      <c r="G1196" t="n">
+        <v>8936098</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1196" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1196" t="inlineStr"/>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>1900.050048828125</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>2125</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>1900.050048828125</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>2113.550048828125</v>
+      </c>
+      <c r="F1197" t="inlineStr"/>
+      <c r="G1197" t="n">
+        <v>16250520</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1197" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1197" t="inlineStr"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>2106</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>2131.550048828125</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>2068.35009765625</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>2086.050048828125</v>
+      </c>
+      <c r="F1198" t="inlineStr"/>
+      <c r="G1198" t="n">
+        <v>6241447</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1198" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1198" t="inlineStr"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>2095</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>2129.25</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>2059.60009765625</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>2093.550048828125</v>
+      </c>
+      <c r="F1199" t="inlineStr"/>
+      <c r="G1199" t="n">
+        <v>4962230</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1199" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1199" t="inlineStr"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>2256.699951171875</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>2092.10009765625</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>2240.199951171875</v>
+      </c>
+      <c r="F1200" t="inlineStr"/>
+      <c r="G1200" t="n">
+        <v>8009454</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1200" t="inlineStr"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>2257</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>2312</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>2206.60009765625</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>2256.5</v>
+      </c>
+      <c r="F1201" t="inlineStr"/>
+      <c r="G1201" t="n">
+        <v>7091253</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1201" t="inlineStr"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>2221.949951171875</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>2278.800048828125</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>2185.550048828125</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>2256.449951171875</v>
+      </c>
+      <c r="F1202" t="inlineStr"/>
+      <c r="G1202" t="n">
+        <v>6180399</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1202" t="inlineStr"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>2269</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>2286</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>2138.14990234375</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>2151.699951171875</v>
+      </c>
+      <c r="F1203" t="inlineStr"/>
+      <c r="G1203" t="n">
+        <v>4961077</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1203" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1203" t="inlineStr"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>2158</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>2237.550048828125</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>2141.550048828125</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>2218.5</v>
+      </c>
+      <c r="F1204" t="inlineStr"/>
+      <c r="G1204" t="n">
+        <v>5797195</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1204" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1204" t="inlineStr"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>2183</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>2240</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>2154.300048828125</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>2198.25</v>
+      </c>
+      <c r="F1205" t="inlineStr"/>
+      <c r="G1205" t="n">
+        <v>3764101</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1205" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1205" t="inlineStr"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>2198.25</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>2304.89990234375</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>2112</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>2224.5</v>
+      </c>
+      <c r="F1206" t="inlineStr"/>
+      <c r="G1206" t="n">
+        <v>6347815</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1206" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1206" t="inlineStr"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>2218.050048828125</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>2272.89990234375</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>2153.64990234375</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>2179.699951171875</v>
+      </c>
+      <c r="F1207" t="inlineStr"/>
+      <c r="G1207" t="n">
+        <v>3649128</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1207" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1207" t="inlineStr"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>2179.699951171875</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>2206.949951171875</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>2062.199951171875</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>2156.699951171875</v>
+      </c>
+      <c r="F1208" t="inlineStr"/>
+      <c r="G1208" t="n">
+        <v>3982288</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1208" t="inlineStr"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>2157.050048828125</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>2217</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>2148.35009765625</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>2197.699951171875</v>
+      </c>
+      <c r="F1209" t="inlineStr"/>
+      <c r="G1209" t="n">
+        <v>4335001</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1209" t="inlineStr"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>2212.800048828125</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>2218.85009765625</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>2078.85009765625</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>2104.60009765625</v>
+      </c>
+      <c r="F1210" t="inlineStr"/>
+      <c r="G1210" t="n">
+        <v>8611475</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1210" t="inlineStr"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>2140</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>2142.449951171875</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>2004.650024414062</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>2015.849975585938</v>
+      </c>
+      <c r="F1211" t="inlineStr"/>
+      <c r="G1211" t="n">
+        <v>3994810</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1211" t="inlineStr"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>2007.5</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>2077.199951171875</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>2071.35009765625</v>
+      </c>
+      <c r="F1212" t="inlineStr"/>
+      <c r="G1212" t="n">
+        <v>2617238</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1212" t="inlineStr"/>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>2086.60009765625</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>2119</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>2050.75</v>
+      </c>
+      <c r="F1213" t="inlineStr"/>
+      <c r="G1213" t="n">
+        <v>4425031</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1213" t="inlineStr"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>2049.5</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>2141.85009765625</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>2043.699951171875</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>2133.550048828125</v>
+      </c>
+      <c r="F1214" t="inlineStr"/>
+      <c r="G1214" t="n">
+        <v>4040043</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1214" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1214" t="inlineStr"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>2136</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>2161.85009765625</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>2041</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>2076.75</v>
+      </c>
+      <c r="F1215" t="inlineStr"/>
+      <c r="G1215" t="n">
+        <v>3213580</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1215" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1215" t="inlineStr"/>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>2089.89990234375</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>2177.75</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>2038</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>2150.699951171875</v>
+      </c>
+      <c r="F1216" t="inlineStr"/>
+      <c r="G1216" t="n">
+        <v>5230602</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1216" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1216" t="inlineStr"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>2154.89990234375</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>2238</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>2126.550048828125</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>2227.800048828125</v>
+      </c>
+      <c r="F1217" t="inlineStr"/>
+      <c r="G1217" t="n">
+        <v>3292430</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1217" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1217" t="inlineStr"/>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>2227.800048828125</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>2402.89990234375</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>2226.85009765625</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>2368.85009765625</v>
+      </c>
+      <c r="F1218" t="inlineStr"/>
+      <c r="G1218" t="n">
+        <v>9417528</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1218" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1218" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1218" t="inlineStr"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>2370</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>2392.25</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>2183.5</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>2191.10009765625</v>
+      </c>
+      <c r="F1219" t="inlineStr"/>
+      <c r="G1219" t="n">
+        <v>5062822</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1219" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1219" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1219" t="inlineStr"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>2159</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>2192.949951171875</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>2068.050048828125</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>2113.14990234375</v>
+      </c>
+      <c r="F1220" t="inlineStr"/>
+      <c r="G1220" t="n">
+        <v>2338580</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1220" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1220" t="inlineStr"/>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>2119.14990234375</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>2165.800048828125</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>2066.25</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>2134.25</v>
+      </c>
+      <c r="F1221" t="inlineStr"/>
+      <c r="G1221" t="n">
+        <v>2951111</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1221" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1221" t="inlineStr"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>2109</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>2126.449951171875</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>2056.25</v>
+      </c>
+      <c r="F1222" t="inlineStr"/>
+      <c r="G1222" t="n">
+        <v>4791802</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1222" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1222" t="inlineStr"/>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>2056.25</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>2225</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>2201.14990234375</v>
+      </c>
+      <c r="F1223" t="inlineStr"/>
+      <c r="G1223" t="n">
+        <v>4222316</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1223" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1223" t="inlineStr"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>2201.89990234375</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>2218.800048828125</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>1931.599975585938</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>1969.900024414062</v>
+      </c>
+      <c r="F1224" t="inlineStr"/>
+      <c r="G1224" t="n">
+        <v>8644483</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1224" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1224" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1224" t="inlineStr"/>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>1956.050048828125</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>2032.900024414062</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>1892.75</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>1905.349975585938</v>
+      </c>
+      <c r="F1225" t="inlineStr"/>
+      <c r="G1225" t="n">
+        <v>4505995</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1225" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1225" t="inlineStr"/>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>1905.349975585938</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>1945.800048828125</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>1859.5</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>1904.650024414062</v>
+      </c>
+      <c r="F1226" t="inlineStr"/>
+      <c r="G1226" t="n">
+        <v>4055865</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1226" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1226" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1226" t="inlineStr"/>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>1904</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>2047.650024414062</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>1891.150024414062</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>2030</v>
+      </c>
+      <c r="F1227" t="inlineStr"/>
+      <c r="G1227" t="n">
+        <v>3730580</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1227" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1227" t="inlineStr"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>2049.800048828125</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>2080.10009765625</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>1937.400024414062</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>1968.449951171875</v>
+      </c>
+      <c r="F1228" t="inlineStr"/>
+      <c r="G1228" t="n">
+        <v>2879176</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1228" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1228" t="inlineStr"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>1965.5</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>2124.800048828125</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>1961</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>2114.699951171875</v>
+      </c>
+      <c r="F1229" t="inlineStr"/>
+      <c r="G1229" t="n">
+        <v>2396567</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1229" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1229" t="inlineStr"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>2129</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>2135</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>1993.599975585938</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>2027.949951171875</v>
+      </c>
+      <c r="F1230" t="inlineStr"/>
+      <c r="G1230" t="n">
+        <v>4151292</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1230" t="inlineStr"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>2027.949951171875</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>2150</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>1916</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>1971.050048828125</v>
+      </c>
+      <c r="F1231" t="inlineStr"/>
+      <c r="G1231" t="n">
+        <v>8992192</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1231" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1231" t="inlineStr"/>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>1795.199951171875</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>2018.650024414062</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>1795.199951171875</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>1969.25</v>
+      </c>
+      <c r="F1232" t="inlineStr"/>
+      <c r="G1232" t="n">
+        <v>4984237</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1232" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1232" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1232" t="inlineStr"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>1969.25</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>2030</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>1921</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>1937.199951171875</v>
+      </c>
+      <c r="F1233" t="inlineStr"/>
+      <c r="G1233" t="n">
+        <v>4705190</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1233" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1233" t="inlineStr"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>1954.199951171875</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>2149.5</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>1928.400024414062</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>2019.599975585938</v>
+      </c>
+      <c r="F1234" t="inlineStr"/>
+      <c r="G1234" t="n">
+        <v>5621487</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1234" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1234" t="inlineStr"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>2019.599975585938</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>2119</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>2015.099975585938</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>2095.60009765625</v>
+      </c>
+      <c r="F1235" t="inlineStr"/>
+      <c r="G1235" t="n">
+        <v>3534604</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1235" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1235" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
